--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.76295499093473</v>
+        <v>4.523724666666666</v>
       </c>
       <c r="H2">
-        <v>3.76295499093473</v>
+        <v>13.571174</v>
       </c>
       <c r="I2">
-        <v>0.4495886579590214</v>
+        <v>0.4806607624766543</v>
       </c>
       <c r="J2">
-        <v>0.4495886579590214</v>
+        <v>0.4806607624766543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.114982154218</v>
+        <v>91.67302333333333</v>
       </c>
       <c r="N2">
-        <v>30.114982154218</v>
+        <v>275.01907</v>
       </c>
       <c r="O2">
-        <v>0.7455330692837193</v>
+        <v>0.8966431814716052</v>
       </c>
       <c r="P2">
-        <v>0.7455330692837193</v>
+        <v>0.896643181471605</v>
       </c>
       <c r="Q2">
-        <v>113.321322399125</v>
+        <v>414.7035169209088</v>
       </c>
       <c r="R2">
-        <v>113.321322399125</v>
+        <v>3732.33165228818</v>
       </c>
       <c r="S2">
-        <v>0.3351832120833375</v>
+        <v>0.4309811952756349</v>
       </c>
       <c r="T2">
-        <v>0.3351832120833375</v>
+        <v>0.4309811952756348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.76295499093473</v>
+        <v>4.523724666666666</v>
       </c>
       <c r="H3">
-        <v>3.76295499093473</v>
+        <v>13.571174</v>
       </c>
       <c r="I3">
-        <v>0.4495886579590214</v>
+        <v>0.4806607624766543</v>
       </c>
       <c r="J3">
-        <v>0.4495886579590214</v>
+        <v>0.4806607624766543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.471728075009411</v>
+        <v>8.548386000000001</v>
       </c>
       <c r="N3">
-        <v>8.471728075009411</v>
+        <v>25.645158</v>
       </c>
       <c r="O3">
-        <v>0.2097279487517208</v>
+        <v>0.08361076945850333</v>
       </c>
       <c r="P3">
-        <v>0.2097279487517208</v>
+        <v>0.08361076945850332</v>
       </c>
       <c r="Q3">
-        <v>31.87873144169853</v>
+        <v>38.670544608388</v>
       </c>
       <c r="R3">
-        <v>31.87873144169853</v>
+        <v>348.034901475492</v>
       </c>
       <c r="S3">
-        <v>0.09429130701578459</v>
+        <v>0.04018841619918398</v>
       </c>
       <c r="T3">
-        <v>0.09429130701578459</v>
+        <v>0.04018841619918397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.76295499093473</v>
+        <v>4.523724666666666</v>
       </c>
       <c r="H4">
-        <v>3.76295499093473</v>
+        <v>13.571174</v>
       </c>
       <c r="I4">
-        <v>0.4495886579590214</v>
+        <v>0.4806607624766543</v>
       </c>
       <c r="J4">
-        <v>0.4495886579590214</v>
+        <v>0.4806607624766543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.80718159793374</v>
+        <v>2.018841</v>
       </c>
       <c r="N4">
-        <v>1.80718159793374</v>
+        <v>6.056523</v>
       </c>
       <c r="O4">
-        <v>0.04473898196455974</v>
+        <v>0.01974604906989159</v>
       </c>
       <c r="P4">
-        <v>0.04473898196455974</v>
+        <v>0.01974604906989159</v>
       </c>
       <c r="Q4">
-        <v>6.800343013470167</v>
+        <v>9.132680829778</v>
       </c>
       <c r="R4">
-        <v>6.800343013470167</v>
+        <v>82.19412746800199</v>
       </c>
       <c r="S4">
-        <v>0.02011413885989928</v>
+        <v>0.009491151001835525</v>
       </c>
       <c r="T4">
-        <v>0.02011413885989928</v>
+        <v>0.009491151001835523</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.00915297750438</v>
+        <v>2.109481</v>
       </c>
       <c r="H5">
-        <v>2.00915297750438</v>
+        <v>6.328443</v>
       </c>
       <c r="I5">
-        <v>0.2400486832732977</v>
+        <v>0.2241393587371326</v>
       </c>
       <c r="J5">
-        <v>0.2400486832732977</v>
+        <v>0.2241393587371326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.114982154218</v>
+        <v>91.67302333333333</v>
       </c>
       <c r="N5">
-        <v>30.114982154218</v>
+        <v>275.01907</v>
       </c>
       <c r="O5">
-        <v>0.7455330692837193</v>
+        <v>0.8966431814716052</v>
       </c>
       <c r="P5">
-        <v>0.7455330692837193</v>
+        <v>0.896643181471605</v>
       </c>
       <c r="Q5">
-        <v>60.50560606263836</v>
+        <v>193.3825009342233</v>
       </c>
       <c r="R5">
-        <v>60.50560606263836</v>
+        <v>1740.44250840801</v>
       </c>
       <c r="S5">
-        <v>0.1789642316182571</v>
+        <v>0.200973027711068</v>
       </c>
       <c r="T5">
-        <v>0.1789642316182571</v>
+        <v>0.2009730277110679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.00915297750438</v>
+        <v>2.109481</v>
       </c>
       <c r="H6">
-        <v>2.00915297750438</v>
+        <v>6.328443</v>
       </c>
       <c r="I6">
-        <v>0.2400486832732977</v>
+        <v>0.2241393587371326</v>
       </c>
       <c r="J6">
-        <v>0.2400486832732977</v>
+        <v>0.2241393587371326</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.471728075009411</v>
+        <v>8.548386000000001</v>
       </c>
       <c r="N6">
-        <v>8.471728075009411</v>
+        <v>25.645158</v>
       </c>
       <c r="O6">
-        <v>0.2097279487517208</v>
+        <v>0.08361076945850333</v>
       </c>
       <c r="P6">
-        <v>0.2097279487517208</v>
+        <v>0.08361076945850332</v>
       </c>
       <c r="Q6">
-        <v>17.02099768651261</v>
+        <v>18.032657847666</v>
       </c>
       <c r="R6">
-        <v>17.02099768651261</v>
+        <v>162.293920628994</v>
       </c>
       <c r="S6">
-        <v>0.05034491794346026</v>
+        <v>0.01874046424994717</v>
       </c>
       <c r="T6">
-        <v>0.05034491794346026</v>
+        <v>0.01874046424994716</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.00915297750438</v>
+        <v>2.109481</v>
       </c>
       <c r="H7">
-        <v>2.00915297750438</v>
+        <v>6.328443</v>
       </c>
       <c r="I7">
-        <v>0.2400486832732977</v>
+        <v>0.2241393587371326</v>
       </c>
       <c r="J7">
-        <v>0.2400486832732977</v>
+        <v>0.2241393587371326</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.80718159793374</v>
+        <v>2.018841</v>
       </c>
       <c r="N7">
-        <v>1.80718159793374</v>
+        <v>6.056523</v>
       </c>
       <c r="O7">
-        <v>0.04473898196455974</v>
+        <v>0.01974604906989159</v>
       </c>
       <c r="P7">
-        <v>0.04473898196455974</v>
+        <v>0.01974604906989159</v>
       </c>
       <c r="Q7">
-        <v>3.630904288379697</v>
+        <v>4.258706731521</v>
       </c>
       <c r="R7">
-        <v>3.630904288379697</v>
+        <v>38.328360583689</v>
       </c>
       <c r="S7">
-        <v>0.01073953371158038</v>
+        <v>0.004425866776117455</v>
       </c>
       <c r="T7">
-        <v>0.01073953371158038</v>
+        <v>0.004425866776117454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.5976649880613</v>
+        <v>2.778265</v>
       </c>
       <c r="H8">
-        <v>2.5976649880613</v>
+        <v>8.334795</v>
       </c>
       <c r="I8">
-        <v>0.3103626587676808</v>
+        <v>0.2951998787862131</v>
       </c>
       <c r="J8">
-        <v>0.3103626587676808</v>
+        <v>0.2951998787862131</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.114982154218</v>
+        <v>91.67302333333333</v>
       </c>
       <c r="N8">
-        <v>30.114982154218</v>
+        <v>275.01907</v>
       </c>
       <c r="O8">
-        <v>0.7455330692837193</v>
+        <v>0.8966431814716052</v>
       </c>
       <c r="P8">
-        <v>0.7455330692837193</v>
+        <v>0.896643181471605</v>
       </c>
       <c r="Q8">
-        <v>78.22863475810296</v>
+        <v>254.6919521711833</v>
       </c>
       <c r="R8">
-        <v>78.22863475810296</v>
+        <v>2292.22756954065</v>
       </c>
       <c r="S8">
-        <v>0.2313856255821247</v>
+        <v>0.2646889584849023</v>
       </c>
       <c r="T8">
-        <v>0.2313856255821247</v>
+        <v>0.2646889584849023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.5976649880613</v>
+        <v>2.778265</v>
       </c>
       <c r="H9">
-        <v>2.5976649880613</v>
+        <v>8.334795</v>
       </c>
       <c r="I9">
-        <v>0.3103626587676808</v>
+        <v>0.2951998787862131</v>
       </c>
       <c r="J9">
-        <v>0.3103626587676808</v>
+        <v>0.2951998787862131</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.471728075009411</v>
+        <v>8.548386000000001</v>
       </c>
       <c r="N9">
-        <v>8.471728075009411</v>
+        <v>25.645158</v>
       </c>
       <c r="O9">
-        <v>0.2097279487517208</v>
+        <v>0.08361076945850333</v>
       </c>
       <c r="P9">
-        <v>0.2097279487517208</v>
+        <v>0.08361076945850332</v>
       </c>
       <c r="Q9">
-        <v>22.0067114088279</v>
+        <v>23.74968163029</v>
       </c>
       <c r="R9">
-        <v>22.0067114088279</v>
+        <v>213.74713467261</v>
       </c>
       <c r="S9">
-        <v>0.06509172379247599</v>
+        <v>0.02468188900937219</v>
       </c>
       <c r="T9">
-        <v>0.06509172379247599</v>
+        <v>0.02468188900937219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.5976649880613</v>
+        <v>2.778265</v>
       </c>
       <c r="H10">
-        <v>2.5976649880613</v>
+        <v>8.334795</v>
       </c>
       <c r="I10">
-        <v>0.3103626587676808</v>
+        <v>0.2951998787862131</v>
       </c>
       <c r="J10">
-        <v>0.3103626587676808</v>
+        <v>0.2951998787862131</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.80718159793374</v>
+        <v>2.018841</v>
       </c>
       <c r="N10">
-        <v>1.80718159793374</v>
+        <v>6.056523</v>
       </c>
       <c r="O10">
-        <v>0.04473898196455974</v>
+        <v>0.01974604906989159</v>
       </c>
       <c r="P10">
-        <v>0.04473898196455974</v>
+        <v>0.01974604906989159</v>
       </c>
       <c r="Q10">
-        <v>4.694452364021149</v>
+        <v>5.608875290865</v>
       </c>
       <c r="R10">
-        <v>4.694452364021149</v>
+        <v>50.479877617785</v>
       </c>
       <c r="S10">
-        <v>0.01388530939308008</v>
+        <v>0.005829031291938614</v>
       </c>
       <c r="T10">
-        <v>0.01388530939308008</v>
+        <v>0.005829031291938613</v>
       </c>
     </row>
   </sheetData>
